--- a/Documentos/release-planning-schedule.xlsx
+++ b/Documentos/release-planning-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrebotelho/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECF7EF5-217C-6B4A-BD54-DD0CBD1CBA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1AD6C5-B07F-F141-9DA8-D9853532705F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25920" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4360" yWindow="1500" windowWidth="30000" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEPLOYMENT PLAN" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>Project Management Templates</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Finish date &amp; time</t>
   </si>
   <si>
-    <t>[dd/mm/yyyy hh:mm]</t>
-  </si>
-  <si>
     <t>US001: Upload de Documentos</t>
   </si>
   <si>
@@ -156,6 +153,54 @@
   </si>
   <si>
     <t>Scrum Team (ST)</t>
+  </si>
+  <si>
+    <t>[16/10/2023 00:00]</t>
+  </si>
+  <si>
+    <t>[18/10/2023 12:00]</t>
+  </si>
+  <si>
+    <t>[20/10/2023 12:00]</t>
+  </si>
+  <si>
+    <t>[24/10/2023 23:59]</t>
+  </si>
+  <si>
+    <t>[22/10/2023 18:00]</t>
+  </si>
+  <si>
+    <t>[28/10/2023 00:00]</t>
+  </si>
+  <si>
+    <t>[22/11/2023 00:00]</t>
+  </si>
+  <si>
+    <t>[05/01/2024 00:00]</t>
+  </si>
+  <si>
+    <t>[21/01/2024 00:00]</t>
+  </si>
+  <si>
+    <t>[25/10/2023 12:00]</t>
+  </si>
+  <si>
+    <t>5/11/2023 12:00]</t>
+  </si>
+  <si>
+    <t>[2/01/2024 23:59]</t>
+  </si>
+  <si>
+    <t>[22/12/2023 00:00]</t>
+  </si>
+  <si>
+    <t>[30/12/2023 16:00]</t>
+  </si>
+  <si>
+    <t>[30/11/2023 12:00]</t>
+  </si>
+  <si>
+    <t>[02/01/2024 23:59]</t>
   </si>
 </sst>
 </file>
@@ -758,8 +803,8 @@
   </sheetPr>
   <dimension ref="B6:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -774,7 +819,7 @@
   <sheetData>
     <row r="6" spans="2:7" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -805,19 +850,19 @@
     </row>
     <row r="9" spans="2:7" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>38</v>
@@ -825,19 +870,19 @@
     </row>
     <row r="10" spans="2:7" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>38</v>
@@ -845,182 +890,182 @@
     </row>
     <row r="11" spans="2:7" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
@@ -1070,7 +1115,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="3:4" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1078,7 +1123,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="3:4" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1094,7 +1139,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
